--- a/ProcessSimulator/N=500 Graphs.xlsx
+++ b/ProcessSimulator/N=500 Graphs.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\MST\Fall 2020\CS 3800\Project\Simulator\Process-Memory-Mangaement-Simulation\ProcessSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5154FF47-E6A8-45E3-A338-002320F7E4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E638629-E344-493F-B1E9-A2BA980E19E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="6000" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
   <si>
     <t>Input</t>
   </si>
@@ -37,6 +45,9 @@
   </si>
   <si>
     <t>Runtime</t>
+  </si>
+  <si>
+    <t>AVG</t>
   </si>
 </sst>
 </file>
@@ -2654,307 +2665,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>3048302</c:v>
+                  <c:v>1220876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3136852</c:v>
+                  <c:v>1303205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3320634</c:v>
+                  <c:v>1307901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3027817</c:v>
+                  <c:v>1374011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3037604</c:v>
+                  <c:v>1253559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2776660</c:v>
+                  <c:v>1219188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2921133</c:v>
+                  <c:v>1192204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3088165</c:v>
+                  <c:v>1274243</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3012781</c:v>
+                  <c:v>1105532</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3212043</c:v>
+                  <c:v>1293369</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3340364</c:v>
+                  <c:v>1199619</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2910277</c:v>
+                  <c:v>1241470</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2765843</c:v>
+                  <c:v>1193460</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2990551</c:v>
+                  <c:v>1246438</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3335776</c:v>
+                  <c:v>1144568</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3161055</c:v>
+                  <c:v>1155078</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3235180</c:v>
+                  <c:v>1329853</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2855833</c:v>
+                  <c:v>1189415</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2974852</c:v>
+                  <c:v>1248611</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3098644</c:v>
+                  <c:v>1175221</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3111716</c:v>
+                  <c:v>1357092</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2906586</c:v>
+                  <c:v>1208080</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3011044</c:v>
+                  <c:v>1211355</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3034646</c:v>
+                  <c:v>1219095</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2776886</c:v>
+                  <c:v>1213127</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3453936</c:v>
+                  <c:v>1358469</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3268715</c:v>
+                  <c:v>1194078</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2881692</c:v>
+                  <c:v>1212302</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3090301</c:v>
+                  <c:v>1248344</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3274980</c:v>
+                  <c:v>1314869</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3097650</c:v>
+                  <c:v>1077217</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3115378</c:v>
+                  <c:v>1252930</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3210136</c:v>
+                  <c:v>1242906</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3242974</c:v>
+                  <c:v>1214031</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2959776</c:v>
+                  <c:v>1448442</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3091946</c:v>
+                  <c:v>1220995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2820059</c:v>
+                  <c:v>1346007</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3265126</c:v>
+                  <c:v>1407563</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2942966</c:v>
+                  <c:v>1302101</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3522208</c:v>
+                  <c:v>1218096</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3100344</c:v>
+                  <c:v>1308205</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2880753</c:v>
+                  <c:v>1168787</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3285838</c:v>
+                  <c:v>1141300</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3027834</c:v>
+                  <c:v>1243254</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2869161</c:v>
+                  <c:v>1199838</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3237683</c:v>
+                  <c:v>1378046</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3506048</c:v>
+                  <c:v>1224849</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3358413</c:v>
+                  <c:v>1245497</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3317126</c:v>
+                  <c:v>1264165</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2642441</c:v>
+                  <c:v>1151612</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2980014</c:v>
+                  <c:v>1161204</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3445260</c:v>
+                  <c:v>1565808</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3158842</c:v>
+                  <c:v>1333411</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3243092</c:v>
+                  <c:v>1235532</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3238062</c:v>
+                  <c:v>1286263</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3061278</c:v>
+                  <c:v>1264403</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2965429</c:v>
+                  <c:v>1147819</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3030054</c:v>
+                  <c:v>1220672</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3242878</c:v>
+                  <c:v>1238579</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3044600</c:v>
+                  <c:v>1292593</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3372397</c:v>
+                  <c:v>1289288</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2826386</c:v>
+                  <c:v>1154349</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2808826</c:v>
+                  <c:v>1275352</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2714643</c:v>
+                  <c:v>1189345</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3405439</c:v>
+                  <c:v>1283151</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3216823</c:v>
+                  <c:v>1219610</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3270815</c:v>
+                  <c:v>1165776</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2889128</c:v>
+                  <c:v>1222425</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3344100</c:v>
+                  <c:v>1123791</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3166509</c:v>
+                  <c:v>1258158</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3418882</c:v>
+                  <c:v>1082062</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2889916</c:v>
+                  <c:v>1138780</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3015134</c:v>
+                  <c:v>1106209</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3031526</c:v>
+                  <c:v>1279854</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2972481</c:v>
+                  <c:v>1308211</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3098264</c:v>
+                  <c:v>1135901</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2990833</c:v>
+                  <c:v>1275992</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3014586</c:v>
+                  <c:v>1257352</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2951835</c:v>
+                  <c:v>1298527</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3163600</c:v>
+                  <c:v>1373805</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3076188</c:v>
+                  <c:v>1247757</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3093085</c:v>
+                  <c:v>1267619</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3179499</c:v>
+                  <c:v>1111719</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2858236</c:v>
+                  <c:v>1163524</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3319743</c:v>
+                  <c:v>1154128</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3143344</c:v>
+                  <c:v>1210531</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3199412</c:v>
+                  <c:v>1238570</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2901489</c:v>
+                  <c:v>1171598</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3255945</c:v>
+                  <c:v>1110282</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2981066</c:v>
+                  <c:v>1051885</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2889935</c:v>
+                  <c:v>1222650</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2748325</c:v>
+                  <c:v>1173521</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3372616</c:v>
+                  <c:v>1233845</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3169611</c:v>
+                  <c:v>1085550</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3263487</c:v>
+                  <c:v>1087701</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3514106</c:v>
+                  <c:v>1175793</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3241799</c:v>
+                  <c:v>1197112</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3609724</c:v>
+                  <c:v>1189663</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2889128</c:v>
+                  <c:v>1222650</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3344100</c:v>
+                  <c:v>1173521</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>3166509</c:v>
+                  <c:v>1233845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5846,307 +5857,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>373.82499999999999</c:v>
+                  <c:v>380.11599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>376.22</c:v>
+                  <c:v>375.85399999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>369.20499999999998</c:v>
+                  <c:v>363.91699999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>391.45800000000003</c:v>
+                  <c:v>394.52600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>392.88499999999999</c:v>
+                  <c:v>394.75400000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>365.68799999999999</c:v>
+                  <c:v>372.613</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>376.33800000000002</c:v>
+                  <c:v>381.077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>380.13099999999997</c:v>
+                  <c:v>383.346</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>353.40499999999997</c:v>
+                  <c:v>355.77600000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>389.64600000000002</c:v>
+                  <c:v>393.94799999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>373.31799999999998</c:v>
+                  <c:v>389.99900000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>346.54899999999998</c:v>
+                  <c:v>348.05799999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>360.58600000000001</c:v>
+                  <c:v>365.49099999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>392.11200000000002</c:v>
+                  <c:v>394.24200000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>377.52</c:v>
+                  <c:v>385.57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>364.87200000000001</c:v>
+                  <c:v>367.60599999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>371.935</c:v>
+                  <c:v>377.89600000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>372.02800000000002</c:v>
+                  <c:v>375.65600000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>376.88200000000001</c:v>
+                  <c:v>386.88</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>380.02100000000002</c:v>
+                  <c:v>386.65199999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>372.346</c:v>
+                  <c:v>370.13299999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>366.62099999999998</c:v>
+                  <c:v>370.41800000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>372.755</c:v>
+                  <c:v>373.61500000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>393.22899999999998</c:v>
+                  <c:v>398.91699999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>375.666</c:v>
+                  <c:v>378.50299999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>381.76</c:v>
+                  <c:v>382.88499999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>373.65600000000001</c:v>
+                  <c:v>376.80799999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>388.61599999999999</c:v>
+                  <c:v>395.29500000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>355.32799999999997</c:v>
+                  <c:v>354.45100000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>385.29</c:v>
+                  <c:v>386.74</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>380.09899999999999</c:v>
+                  <c:v>379.85899999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>388.10199999999998</c:v>
+                  <c:v>393.44900000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>370.61099999999999</c:v>
+                  <c:v>379.48399999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>382.87</c:v>
+                  <c:v>387.98399999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>369.536</c:v>
+                  <c:v>371.95</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>362.59199999999998</c:v>
+                  <c:v>366.536</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>369.40199999999999</c:v>
+                  <c:v>376.94200000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>342.65100000000001</c:v>
+                  <c:v>343.33300000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>389.49</c:v>
+                  <c:v>394.60700000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>371.488</c:v>
+                  <c:v>374.83100000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>368.67599999999999</c:v>
+                  <c:v>371.87900000000002</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>380.65300000000002</c:v>
+                  <c:v>385.53699999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>368.06400000000002</c:v>
+                  <c:v>373.45299999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>365.03899999999999</c:v>
+                  <c:v>371.92899999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>373.488</c:v>
+                  <c:v>375.53100000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>353.80099999999999</c:v>
+                  <c:v>349.19400000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>389.85500000000002</c:v>
+                  <c:v>397.11099999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>372.97500000000002</c:v>
+                  <c:v>378.80200000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>373.39100000000002</c:v>
+                  <c:v>374.79899999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>352.28800000000001</c:v>
+                  <c:v>357.10500000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>388.767</c:v>
+                  <c:v>394.911</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>377.76900000000001</c:v>
+                  <c:v>382.98399999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>356.14400000000001</c:v>
+                  <c:v>355.255</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>362.14</c:v>
+                  <c:v>365.40300000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>375.20499999999998</c:v>
+                  <c:v>373.30700000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>355.20499999999998</c:v>
+                  <c:v>359.04599999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>371.90300000000002</c:v>
+                  <c:v>375.71600000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>402.36700000000002</c:v>
+                  <c:v>401.99400000000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>363.23700000000002</c:v>
+                  <c:v>358.46300000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>351.702</c:v>
+                  <c:v>356.18</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>356.22899999999998</c:v>
+                  <c:v>355.40699999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>364.68400000000003</c:v>
+                  <c:v>371.45</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>375.16300000000001</c:v>
+                  <c:v>380.57</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>384.596</c:v>
+                  <c:v>389.863</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>378.03399999999999</c:v>
+                  <c:v>382.541</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>381.50299999999999</c:v>
+                  <c:v>388.09300000000002</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>355.92599999999999</c:v>
+                  <c:v>359.07600000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>356.95800000000003</c:v>
+                  <c:v>355.07</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>361.61200000000002</c:v>
+                  <c:v>360.18</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>370.58699999999999</c:v>
+                  <c:v>373.16500000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>368.95100000000002</c:v>
+                  <c:v>374.31</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>359.81400000000002</c:v>
+                  <c:v>358.78699999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>371.28800000000001</c:v>
+                  <c:v>372.42200000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>365.75099999999998</c:v>
+                  <c:v>365.65100000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>377.24400000000003</c:v>
+                  <c:v>380.35399999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>364.08</c:v>
+                  <c:v>370.31299999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>380.18599999999998</c:v>
+                  <c:v>386.286</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>380.34899999999999</c:v>
+                  <c:v>385.21600000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>358.79199999999997</c:v>
+                  <c:v>364.20299999999997</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>366.88099999999997</c:v>
+                  <c:v>372.30399999999997</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>378.44299999999998</c:v>
+                  <c:v>384.24</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>381.79399999999998</c:v>
+                  <c:v>385.447</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>389.09</c:v>
+                  <c:v>396.97800000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>365.10300000000001</c:v>
+                  <c:v>366.64600000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>361.79599999999999</c:v>
+                  <c:v>365.70299999999997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>362.21699999999998</c:v>
+                  <c:v>368.92599999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>385.03699999999998</c:v>
+                  <c:v>394.75599999999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>390.24299999999999</c:v>
+                  <c:v>390.78</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>368.35399999999998</c:v>
+                  <c:v>372.95699999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>379.96499999999997</c:v>
+                  <c:v>385.25099999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>378.07</c:v>
+                  <c:v>389.31900000000002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>362.51</c:v>
+                  <c:v>363.68599999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>361.42200000000003</c:v>
+                  <c:v>361.76299999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>368.589</c:v>
+                  <c:v>374.10700000000003</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>377.96100000000001</c:v>
+                  <c:v>383.041</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>383.20600000000002</c:v>
+                  <c:v>388.31900000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>372.65600000000001</c:v>
+                  <c:v>379.56299999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>387.37599999999998</c:v>
+                  <c:v>397.971</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>356.95800000000003</c:v>
+                  <c:v>389.31900000000002</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>361.61200000000002</c:v>
+                  <c:v>363.68599999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>370.58699999999999</c:v>
+                  <c:v>361.76299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7572,13 +7583,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7608,13 +7619,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7908,10 +7919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM102"/>
+  <dimension ref="A1:AM103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="W118" sqref="W118"/>
+    <sheetView tabSelected="1" topLeftCell="L79" workbookViewId="0">
+      <selection activeCell="AM103" sqref="AM103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8103,13 +8114,13 @@
         <v>8</v>
       </c>
       <c r="AK2">
-        <v>1708.11</v>
+        <v>1683.02</v>
       </c>
       <c r="AL2">
-        <v>373.82499999999999</v>
+        <v>380.11599999999999</v>
       </c>
       <c r="AM2">
-        <v>3048302</v>
+        <v>1220876</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -8201,13 +8212,13 @@
         <v>8</v>
       </c>
       <c r="AK3">
-        <v>1572.74</v>
+        <v>1528.11</v>
       </c>
       <c r="AL3">
-        <v>376.22</v>
+        <v>375.85399999999998</v>
       </c>
       <c r="AM3">
-        <v>3136852</v>
+        <v>1303205</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
@@ -8299,13 +8310,13 @@
         <v>8</v>
       </c>
       <c r="AK4">
-        <v>1643.28</v>
+        <v>1558.98</v>
       </c>
       <c r="AL4">
-        <v>369.20499999999998</v>
+        <v>363.91699999999997</v>
       </c>
       <c r="AM4">
-        <v>3320634</v>
+        <v>1307901</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
@@ -8397,13 +8408,13 @@
         <v>8</v>
       </c>
       <c r="AK5">
-        <v>1633</v>
+        <v>1589.95</v>
       </c>
       <c r="AL5">
-        <v>391.45800000000003</v>
+        <v>394.52600000000001</v>
       </c>
       <c r="AM5">
-        <v>3027817</v>
+        <v>1374011</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
@@ -8495,13 +8506,13 @@
         <v>8</v>
       </c>
       <c r="AK6">
-        <v>1683.1</v>
+        <v>1629.82</v>
       </c>
       <c r="AL6">
-        <v>392.88499999999999</v>
+        <v>394.75400000000002</v>
       </c>
       <c r="AM6">
-        <v>3037604</v>
+        <v>1253559</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -8593,13 +8604,13 @@
         <v>8</v>
       </c>
       <c r="AK7">
-        <v>1485.89</v>
+        <v>1474.69</v>
       </c>
       <c r="AL7">
-        <v>365.68799999999999</v>
+        <v>372.613</v>
       </c>
       <c r="AM7">
-        <v>2776660</v>
+        <v>1219188</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -8691,13 +8702,13 @@
         <v>8</v>
       </c>
       <c r="AK8">
-        <v>1656.27</v>
+        <v>1626.62</v>
       </c>
       <c r="AL8">
-        <v>376.33800000000002</v>
+        <v>381.077</v>
       </c>
       <c r="AM8">
-        <v>2921133</v>
+        <v>1192204</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
@@ -8789,13 +8800,13 @@
         <v>8</v>
       </c>
       <c r="AK9">
-        <v>1686.12</v>
+        <v>1641.01</v>
       </c>
       <c r="AL9">
-        <v>380.13099999999997</v>
+        <v>383.346</v>
       </c>
       <c r="AM9">
-        <v>3088165</v>
+        <v>1274243</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
@@ -8887,13 +8898,13 @@
         <v>8</v>
       </c>
       <c r="AK10">
-        <v>1604.74</v>
+        <v>1593.89</v>
       </c>
       <c r="AL10">
-        <v>353.40499999999997</v>
+        <v>355.77600000000001</v>
       </c>
       <c r="AM10">
-        <v>3012781</v>
+        <v>1105532</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
@@ -8985,13 +8996,13 @@
         <v>8</v>
       </c>
       <c r="AK11">
-        <v>1712.09</v>
+        <v>1682.4</v>
       </c>
       <c r="AL11">
-        <v>389.64600000000002</v>
+        <v>393.94799999999998</v>
       </c>
       <c r="AM11">
-        <v>3212043</v>
+        <v>1293369</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -9083,13 +9094,13 @@
         <v>8</v>
       </c>
       <c r="AK12">
-        <v>1558.16</v>
+        <v>1573.27</v>
       </c>
       <c r="AL12">
-        <v>373.31799999999998</v>
+        <v>389.99900000000002</v>
       </c>
       <c r="AM12">
-        <v>3340364</v>
+        <v>1199619</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
@@ -9181,13 +9192,13 @@
         <v>8</v>
       </c>
       <c r="AK13">
-        <v>1614.51</v>
+        <v>1579.58</v>
       </c>
       <c r="AL13">
-        <v>346.54899999999998</v>
+        <v>348.05799999999999</v>
       </c>
       <c r="AM13">
-        <v>2910277</v>
+        <v>1241470</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
@@ -9279,13 +9290,13 @@
         <v>8</v>
       </c>
       <c r="AK14">
-        <v>1615.87</v>
+        <v>1598.26</v>
       </c>
       <c r="AL14">
-        <v>360.58600000000001</v>
+        <v>365.49099999999999</v>
       </c>
       <c r="AM14">
-        <v>2765843</v>
+        <v>1193460</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
@@ -9377,13 +9388,13 @@
         <v>8</v>
       </c>
       <c r="AK15">
-        <v>1714.59</v>
+        <v>1679.36</v>
       </c>
       <c r="AL15">
-        <v>392.11200000000002</v>
+        <v>394.24200000000002</v>
       </c>
       <c r="AM15">
-        <v>2990551</v>
+        <v>1246438</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -9475,13 +9486,13 @@
         <v>8</v>
       </c>
       <c r="AK16">
-        <v>1587.42</v>
+        <v>1558.32</v>
       </c>
       <c r="AL16">
-        <v>377.52</v>
+        <v>385.57</v>
       </c>
       <c r="AM16">
-        <v>3335776</v>
+        <v>1144568</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
@@ -9573,13 +9584,13 @@
         <v>8</v>
       </c>
       <c r="AK17">
-        <v>1622.19</v>
+        <v>1574.89</v>
       </c>
       <c r="AL17">
-        <v>364.87200000000001</v>
+        <v>367.60599999999999</v>
       </c>
       <c r="AM17">
-        <v>3161055</v>
+        <v>1155078</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
@@ -9671,13 +9682,13 @@
         <v>8</v>
       </c>
       <c r="AK18">
-        <v>1623.23</v>
+        <v>1589.79</v>
       </c>
       <c r="AL18">
-        <v>371.935</v>
+        <v>377.89600000000002</v>
       </c>
       <c r="AM18">
-        <v>3235180</v>
+        <v>1329853</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
@@ -9769,13 +9780,13 @@
         <v>8</v>
       </c>
       <c r="AK19">
-        <v>1601.88</v>
+        <v>1568.18</v>
       </c>
       <c r="AL19">
-        <v>372.02800000000002</v>
+        <v>375.65600000000001</v>
       </c>
       <c r="AM19">
-        <v>2855833</v>
+        <v>1189415</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
@@ -9867,13 +9878,13 @@
         <v>8</v>
       </c>
       <c r="AK20">
-        <v>1602.45</v>
+        <v>1585.43</v>
       </c>
       <c r="AL20">
-        <v>376.88200000000001</v>
+        <v>386.88</v>
       </c>
       <c r="AM20">
-        <v>2974852</v>
+        <v>1248611</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
@@ -9965,13 +9976,13 @@
         <v>8</v>
       </c>
       <c r="AK21">
-        <v>1670</v>
+        <v>1640.08</v>
       </c>
       <c r="AL21">
-        <v>380.02100000000002</v>
+        <v>386.65199999999999</v>
       </c>
       <c r="AM21">
-        <v>3098644</v>
+        <v>1175221</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
@@ -10063,13 +10074,13 @@
         <v>8</v>
       </c>
       <c r="AK22">
-        <v>1619.33</v>
+        <v>1576.41</v>
       </c>
       <c r="AL22">
-        <v>372.346</v>
+        <v>370.13299999999998</v>
       </c>
       <c r="AM22">
-        <v>3111716</v>
+        <v>1357092</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
@@ -10161,13 +10172,13 @@
         <v>8</v>
       </c>
       <c r="AK23">
-        <v>1628.62</v>
+        <v>1601.64</v>
       </c>
       <c r="AL23">
-        <v>366.62099999999998</v>
+        <v>370.41800000000001</v>
       </c>
       <c r="AM23">
-        <v>2906586</v>
+        <v>1208080</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
@@ -10259,13 +10270,13 @@
         <v>8</v>
       </c>
       <c r="AK24">
-        <v>1680.49</v>
+        <v>1638.63</v>
       </c>
       <c r="AL24">
-        <v>372.755</v>
+        <v>373.61500000000001</v>
       </c>
       <c r="AM24">
-        <v>3011044</v>
+        <v>1211355</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
@@ -10357,13 +10368,13 @@
         <v>8</v>
       </c>
       <c r="AK25">
-        <v>1643.94</v>
+        <v>1605.23</v>
       </c>
       <c r="AL25">
-        <v>393.22899999999998</v>
+        <v>398.91699999999997</v>
       </c>
       <c r="AM25">
-        <v>3034646</v>
+        <v>1219095</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
@@ -10455,13 +10466,13 @@
         <v>8</v>
       </c>
       <c r="AK26">
-        <v>1656.22</v>
+        <v>1616.78</v>
       </c>
       <c r="AL26">
-        <v>375.666</v>
+        <v>378.50299999999999</v>
       </c>
       <c r="AM26">
-        <v>2776886</v>
+        <v>1213127</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
@@ -10553,13 +10564,13 @@
         <v>8</v>
       </c>
       <c r="AK27">
-        <v>1654.14</v>
+        <v>1603.97</v>
       </c>
       <c r="AL27">
-        <v>381.76</v>
+        <v>382.88499999999999</v>
       </c>
       <c r="AM27">
-        <v>3453936</v>
+        <v>1358469</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
@@ -10651,13 +10662,13 @@
         <v>8</v>
       </c>
       <c r="AK28">
-        <v>1649.72</v>
+        <v>1599.94</v>
       </c>
       <c r="AL28">
-        <v>373.65600000000001</v>
+        <v>376.80799999999999</v>
       </c>
       <c r="AM28">
-        <v>3268715</v>
+        <v>1194078</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
@@ -10749,13 +10760,13 @@
         <v>8</v>
       </c>
       <c r="AK29">
-        <v>1735.06</v>
+        <v>1704.97</v>
       </c>
       <c r="AL29">
-        <v>388.61599999999999</v>
+        <v>395.29500000000002</v>
       </c>
       <c r="AM29">
-        <v>2881692</v>
+        <v>1212302</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
@@ -10847,13 +10858,13 @@
         <v>8</v>
       </c>
       <c r="AK30">
-        <v>1630.74</v>
+        <v>1592.26</v>
       </c>
       <c r="AL30">
-        <v>355.32799999999997</v>
+        <v>354.45100000000002</v>
       </c>
       <c r="AM30">
-        <v>3090301</v>
+        <v>1248344</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
@@ -10945,13 +10956,13 @@
         <v>8</v>
       </c>
       <c r="AK31">
-        <v>1641.35</v>
+        <v>1591.17</v>
       </c>
       <c r="AL31">
-        <v>385.29</v>
+        <v>386.74</v>
       </c>
       <c r="AM31">
-        <v>3274980</v>
+        <v>1314869</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
@@ -11043,13 +11054,13 @@
         <v>8</v>
       </c>
       <c r="AK32">
-        <v>1634.77</v>
+        <v>1581.7</v>
       </c>
       <c r="AL32">
-        <v>380.09899999999999</v>
+        <v>379.85899999999998</v>
       </c>
       <c r="AM32">
-        <v>3097650</v>
+        <v>1077217</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
@@ -11141,13 +11152,13 @@
         <v>8</v>
       </c>
       <c r="AK33">
-        <v>1647.76</v>
+        <v>1617.28</v>
       </c>
       <c r="AL33">
-        <v>388.10199999999998</v>
+        <v>393.44900000000001</v>
       </c>
       <c r="AM33">
-        <v>3115378</v>
+        <v>1252930</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
@@ -11239,13 +11250,13 @@
         <v>8</v>
       </c>
       <c r="AK34">
-        <v>1625.86</v>
+        <v>1617.83</v>
       </c>
       <c r="AL34">
-        <v>370.61099999999999</v>
+        <v>379.48399999999998</v>
       </c>
       <c r="AM34">
-        <v>3210136</v>
+        <v>1242906</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
@@ -11337,13 +11348,13 @@
         <v>8</v>
       </c>
       <c r="AK35">
-        <v>1621.87</v>
+        <v>1572.09</v>
       </c>
       <c r="AL35">
-        <v>382.87</v>
+        <v>387.98399999999998</v>
       </c>
       <c r="AM35">
-        <v>3242974</v>
+        <v>1214031</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
@@ -11435,13 +11446,13 @@
         <v>8</v>
       </c>
       <c r="AK36">
-        <v>1601.85</v>
+        <v>1562.19</v>
       </c>
       <c r="AL36">
-        <v>369.536</v>
+        <v>371.95</v>
       </c>
       <c r="AM36">
-        <v>2959776</v>
+        <v>1448442</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
@@ -11533,13 +11544,13 @@
         <v>8</v>
       </c>
       <c r="AK37">
-        <v>1506.14</v>
+        <v>1478.4</v>
       </c>
       <c r="AL37">
-        <v>362.59199999999998</v>
+        <v>366.536</v>
       </c>
       <c r="AM37">
-        <v>3091946</v>
+        <v>1220995</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
@@ -11631,13 +11642,13 @@
         <v>8</v>
       </c>
       <c r="AK38">
-        <v>1643.3</v>
+        <v>1637.8</v>
       </c>
       <c r="AL38">
-        <v>369.40199999999999</v>
+        <v>376.94200000000001</v>
       </c>
       <c r="AM38">
-        <v>2820059</v>
+        <v>1346007</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
@@ -11729,13 +11740,13 @@
         <v>8</v>
       </c>
       <c r="AK39">
-        <v>1588.5</v>
+        <v>1535.1</v>
       </c>
       <c r="AL39">
-        <v>342.65100000000001</v>
+        <v>343.33300000000003</v>
       </c>
       <c r="AM39">
-        <v>3265126</v>
+        <v>1407563</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
@@ -11827,13 +11838,13 @@
         <v>8</v>
       </c>
       <c r="AK40">
-        <v>1725.21</v>
+        <v>1686.6</v>
       </c>
       <c r="AL40">
-        <v>389.49</v>
+        <v>394.60700000000003</v>
       </c>
       <c r="AM40">
-        <v>2942966</v>
+        <v>1302101</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
@@ -11925,13 +11936,13 @@
         <v>8</v>
       </c>
       <c r="AK41">
-        <v>1645.21</v>
+        <v>1597.26</v>
       </c>
       <c r="AL41">
-        <v>371.488</v>
+        <v>374.83100000000002</v>
       </c>
       <c r="AM41">
-        <v>3522208</v>
+        <v>1218096</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
@@ -12023,13 +12034,13 @@
         <v>8</v>
       </c>
       <c r="AK42">
-        <v>1661.56</v>
+        <v>1636.69</v>
       </c>
       <c r="AL42">
-        <v>368.67599999999999</v>
+        <v>371.87900000000002</v>
       </c>
       <c r="AM42">
-        <v>3100344</v>
+        <v>1308205</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
@@ -12121,13 +12132,13 @@
         <v>8</v>
       </c>
       <c r="AK43">
-        <v>1658.58</v>
+        <v>1630.31</v>
       </c>
       <c r="AL43">
-        <v>380.65300000000002</v>
+        <v>385.53699999999998</v>
       </c>
       <c r="AM43">
-        <v>2880753</v>
+        <v>1168787</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
@@ -12219,13 +12230,13 @@
         <v>8</v>
       </c>
       <c r="AK44">
-        <v>1665.37</v>
+        <v>1627.88</v>
       </c>
       <c r="AL44">
-        <v>368.06400000000002</v>
+        <v>373.45299999999997</v>
       </c>
       <c r="AM44">
-        <v>3285838</v>
+        <v>1141300</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
@@ -12317,13 +12328,13 @@
         <v>8</v>
       </c>
       <c r="AK45">
-        <v>1647.7</v>
+        <v>1623.71</v>
       </c>
       <c r="AL45">
-        <v>365.03899999999999</v>
+        <v>371.92899999999997</v>
       </c>
       <c r="AM45">
-        <v>3027834</v>
+        <v>1243254</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
@@ -12415,13 +12426,13 @@
         <v>8</v>
       </c>
       <c r="AK46">
-        <v>1699.04</v>
+        <v>1664.92</v>
       </c>
       <c r="AL46">
-        <v>373.488</v>
+        <v>375.53100000000001</v>
       </c>
       <c r="AM46">
-        <v>2869161</v>
+        <v>1199838</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
@@ -12513,13 +12524,13 @@
         <v>8</v>
       </c>
       <c r="AK47">
-        <v>1623.04</v>
+        <v>1557.06</v>
       </c>
       <c r="AL47">
-        <v>353.80099999999999</v>
+        <v>349.19400000000002</v>
       </c>
       <c r="AM47">
-        <v>3237683</v>
+        <v>1378046</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
@@ -12611,13 +12622,13 @@
         <v>8</v>
       </c>
       <c r="AK48">
-        <v>1737.46</v>
+        <v>1699.72</v>
       </c>
       <c r="AL48">
-        <v>389.85500000000002</v>
+        <v>397.11099999999999</v>
       </c>
       <c r="AM48">
-        <v>3506048</v>
+        <v>1224849</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
@@ -12709,13 +12720,13 @@
         <v>8</v>
       </c>
       <c r="AK49">
-        <v>1721.02</v>
+        <v>1692.51</v>
       </c>
       <c r="AL49">
-        <v>372.97500000000002</v>
+        <v>378.80200000000002</v>
       </c>
       <c r="AM49">
-        <v>3358413</v>
+        <v>1245497</v>
       </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
@@ -12807,13 +12818,13 @@
         <v>8</v>
       </c>
       <c r="AK50">
-        <v>1670.41</v>
+        <v>1623.95</v>
       </c>
       <c r="AL50">
-        <v>373.39100000000002</v>
+        <v>374.79899999999998</v>
       </c>
       <c r="AM50">
-        <v>3317126</v>
+        <v>1264165</v>
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
@@ -12905,13 +12916,13 @@
         <v>8</v>
       </c>
       <c r="AK51">
-        <v>1514.88</v>
+        <v>1500.53</v>
       </c>
       <c r="AL51">
-        <v>352.28800000000001</v>
+        <v>357.10500000000002</v>
       </c>
       <c r="AM51">
-        <v>2642441</v>
+        <v>1151612</v>
       </c>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.25">
@@ -13003,13 +13014,13 @@
         <v>8</v>
       </c>
       <c r="AK52">
-        <v>1749.09</v>
+        <v>1735.76</v>
       </c>
       <c r="AL52">
-        <v>388.767</v>
+        <v>394.911</v>
       </c>
       <c r="AM52">
-        <v>2980014</v>
+        <v>1161204</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
@@ -13101,13 +13112,13 @@
         <v>8</v>
       </c>
       <c r="AK53">
-        <v>1620</v>
+        <v>1587.32</v>
       </c>
       <c r="AL53">
-        <v>377.76900000000001</v>
+        <v>382.98399999999998</v>
       </c>
       <c r="AM53">
-        <v>3445260</v>
+        <v>1565808</v>
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.25">
@@ -13199,13 +13210,13 @@
         <v>8</v>
       </c>
       <c r="AK54">
-        <v>1621.86</v>
+        <v>1586.56</v>
       </c>
       <c r="AL54">
-        <v>356.14400000000001</v>
+        <v>355.255</v>
       </c>
       <c r="AM54">
-        <v>3158842</v>
+        <v>1333411</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
@@ -13297,13 +13308,13 @@
         <v>8</v>
       </c>
       <c r="AK55">
-        <v>1758.96</v>
+        <v>1725.33</v>
       </c>
       <c r="AL55">
-        <v>362.14</v>
+        <v>365.40300000000002</v>
       </c>
       <c r="AM55">
-        <v>3243092</v>
+        <v>1235532</v>
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.25">
@@ -13395,13 +13406,13 @@
         <v>8</v>
       </c>
       <c r="AK56">
-        <v>1658.97</v>
+        <v>1606.95</v>
       </c>
       <c r="AL56">
-        <v>375.20499999999998</v>
+        <v>373.30700000000002</v>
       </c>
       <c r="AM56">
-        <v>3238062</v>
+        <v>1286263</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.25">
@@ -13493,13 +13504,13 @@
         <v>8</v>
       </c>
       <c r="AK57">
-        <v>1658.98</v>
+        <v>1627.78</v>
       </c>
       <c r="AL57">
-        <v>355.20499999999998</v>
+        <v>359.04599999999999</v>
       </c>
       <c r="AM57">
-        <v>3061278</v>
+        <v>1264403</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
@@ -13591,13 +13602,13 @@
         <v>8</v>
       </c>
       <c r="AK58">
-        <v>1637.54</v>
+        <v>1602.72</v>
       </c>
       <c r="AL58">
-        <v>371.90300000000002</v>
+        <v>375.71600000000001</v>
       </c>
       <c r="AM58">
-        <v>2965429</v>
+        <v>1147819</v>
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">
@@ -13689,13 +13700,13 @@
         <v>8</v>
       </c>
       <c r="AK59">
-        <v>1736.7</v>
+        <v>1675.87</v>
       </c>
       <c r="AL59">
-        <v>402.36700000000002</v>
+        <v>401.99400000000003</v>
       </c>
       <c r="AM59">
-        <v>3030054</v>
+        <v>1220672</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.25">
@@ -13787,13 +13798,13 @@
         <v>8</v>
       </c>
       <c r="AK60">
-        <v>1590.96</v>
+        <v>1533.3</v>
       </c>
       <c r="AL60">
-        <v>363.23700000000002</v>
+        <v>358.46300000000002</v>
       </c>
       <c r="AM60">
-        <v>3242878</v>
+        <v>1238579</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.25">
@@ -13885,13 +13896,13 @@
         <v>8</v>
       </c>
       <c r="AK61">
-        <v>1592.56</v>
+        <v>1567.95</v>
       </c>
       <c r="AL61">
-        <v>351.702</v>
+        <v>356.18</v>
       </c>
       <c r="AM61">
-        <v>3044600</v>
+        <v>1292593</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.25">
@@ -13983,13 +13994,13 @@
         <v>8</v>
       </c>
       <c r="AK62">
-        <v>1673.13</v>
+        <v>1626.82</v>
       </c>
       <c r="AL62">
-        <v>356.22899999999998</v>
+        <v>355.40699999999998</v>
       </c>
       <c r="AM62">
-        <v>3372397</v>
+        <v>1289288</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.25">
@@ -14081,13 +14092,13 @@
         <v>8</v>
       </c>
       <c r="AK63">
-        <v>1704.88</v>
+        <v>1683.54</v>
       </c>
       <c r="AL63">
-        <v>364.68400000000003</v>
+        <v>371.45</v>
       </c>
       <c r="AM63">
-        <v>2826386</v>
+        <v>1154349</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
@@ -14179,13 +14190,13 @@
         <v>8</v>
       </c>
       <c r="AK64">
-        <v>1670.42</v>
+        <v>1654.88</v>
       </c>
       <c r="AL64">
-        <v>375.16300000000001</v>
+        <v>380.57</v>
       </c>
       <c r="AM64">
-        <v>2808826</v>
+        <v>1275352</v>
       </c>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
@@ -14277,13 +14288,13 @@
         <v>8</v>
       </c>
       <c r="AK65">
-        <v>1616.56</v>
+        <v>1585.88</v>
       </c>
       <c r="AL65">
-        <v>384.596</v>
+        <v>389.863</v>
       </c>
       <c r="AM65">
-        <v>2714643</v>
+        <v>1189345</v>
       </c>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
@@ -14375,13 +14386,13 @@
         <v>8</v>
       </c>
       <c r="AK66">
-        <v>1679.16</v>
+        <v>1643.74</v>
       </c>
       <c r="AL66">
-        <v>378.03399999999999</v>
+        <v>382.541</v>
       </c>
       <c r="AM66">
-        <v>3405439</v>
+        <v>1283151</v>
       </c>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
@@ -14473,13 +14484,13 @@
         <v>8</v>
       </c>
       <c r="AK67">
-        <v>1668.08</v>
+        <v>1641.29</v>
       </c>
       <c r="AL67">
-        <v>381.50299999999999</v>
+        <v>388.09300000000002</v>
       </c>
       <c r="AM67">
-        <v>3216823</v>
+        <v>1219610</v>
       </c>
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.25">
@@ -14571,13 +14582,13 @@
         <v>8</v>
       </c>
       <c r="AK68">
-        <v>1657.07</v>
+        <v>1629.36</v>
       </c>
       <c r="AL68">
-        <v>355.92599999999999</v>
+        <v>359.07600000000002</v>
       </c>
       <c r="AM68">
-        <v>3270815</v>
+        <v>1165776</v>
       </c>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
@@ -14669,13 +14680,13 @@
         <v>8</v>
       </c>
       <c r="AK69">
-        <v>1583.46</v>
+        <v>1527.23</v>
       </c>
       <c r="AL69">
-        <v>356.95800000000003</v>
+        <v>355.07</v>
       </c>
       <c r="AM69">
-        <v>2889128</v>
+        <v>1222425</v>
       </c>
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.25">
@@ -14767,13 +14778,13 @@
         <v>8</v>
       </c>
       <c r="AK70">
-        <v>1629.45</v>
+        <v>1579.67</v>
       </c>
       <c r="AL70">
-        <v>361.61200000000002</v>
+        <v>360.18</v>
       </c>
       <c r="AM70">
-        <v>3344100</v>
+        <v>1123791</v>
       </c>
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.25">
@@ -14865,13 +14876,13 @@
         <v>8</v>
       </c>
       <c r="AK71">
-        <v>1655.61</v>
+        <v>1623.55</v>
       </c>
       <c r="AL71">
-        <v>370.58699999999999</v>
+        <v>373.16500000000002</v>
       </c>
       <c r="AM71">
-        <v>3166509</v>
+        <v>1258158</v>
       </c>
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
@@ -14963,13 +14974,13 @@
         <v>8</v>
       </c>
       <c r="AK72">
-        <v>1529.54</v>
+        <v>1511.2</v>
       </c>
       <c r="AL72">
-        <v>368.95100000000002</v>
+        <v>374.31</v>
       </c>
       <c r="AM72">
-        <v>3418882</v>
+        <v>1082062</v>
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.25">
@@ -15061,13 +15072,13 @@
         <v>8</v>
       </c>
       <c r="AK73">
-        <v>1568.43</v>
+        <v>1522.32</v>
       </c>
       <c r="AL73">
-        <v>359.81400000000002</v>
+        <v>358.78699999999998</v>
       </c>
       <c r="AM73">
-        <v>2889916</v>
+        <v>1138780</v>
       </c>
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.25">
@@ -15159,13 +15170,13 @@
         <v>8</v>
       </c>
       <c r="AK74">
-        <v>1602.58</v>
+        <v>1563.18</v>
       </c>
       <c r="AL74">
-        <v>371.28800000000001</v>
+        <v>372.42200000000003</v>
       </c>
       <c r="AM74">
-        <v>3015134</v>
+        <v>1106209</v>
       </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.25">
@@ -15257,13 +15268,13 @@
         <v>8</v>
       </c>
       <c r="AK75">
-        <v>1636.74</v>
+        <v>1594.44</v>
       </c>
       <c r="AL75">
-        <v>365.75099999999998</v>
+        <v>365.65100000000001</v>
       </c>
       <c r="AM75">
-        <v>3031526</v>
+        <v>1279854</v>
       </c>
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.25">
@@ -15355,13 +15366,13 @@
         <v>8</v>
       </c>
       <c r="AK76">
-        <v>1597.92</v>
+        <v>1565.71</v>
       </c>
       <c r="AL76">
-        <v>377.24400000000003</v>
+        <v>380.35399999999998</v>
       </c>
       <c r="AM76">
-        <v>2972481</v>
+        <v>1308211</v>
       </c>
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.25">
@@ -15453,13 +15464,13 @@
         <v>8</v>
       </c>
       <c r="AK77">
-        <v>1691.66</v>
+        <v>1671.36</v>
       </c>
       <c r="AL77">
-        <v>364.08</v>
+        <v>370.31299999999999</v>
       </c>
       <c r="AM77">
-        <v>3098264</v>
+        <v>1135901</v>
       </c>
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.25">
@@ -15551,13 +15562,13 @@
         <v>8</v>
       </c>
       <c r="AK78">
-        <v>1655.2</v>
+        <v>1635.65</v>
       </c>
       <c r="AL78">
-        <v>380.18599999999998</v>
+        <v>386.286</v>
       </c>
       <c r="AM78">
-        <v>2990833</v>
+        <v>1275992</v>
       </c>
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.25">
@@ -15649,13 +15660,13 @@
         <v>8</v>
       </c>
       <c r="AK79">
-        <v>1688.78</v>
+        <v>1653.45</v>
       </c>
       <c r="AL79">
-        <v>380.34899999999999</v>
+        <v>385.21600000000001</v>
       </c>
       <c r="AM79">
-        <v>3014586</v>
+        <v>1257352</v>
       </c>
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.25">
@@ -15747,13 +15758,13 @@
         <v>8</v>
       </c>
       <c r="AK80">
-        <v>1658.54</v>
+        <v>1641.57</v>
       </c>
       <c r="AL80">
-        <v>358.79199999999997</v>
+        <v>364.20299999999997</v>
       </c>
       <c r="AM80">
-        <v>2951835</v>
+        <v>1298527</v>
       </c>
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.25">
@@ -15845,13 +15856,13 @@
         <v>8</v>
       </c>
       <c r="AK81">
-        <v>1615.02</v>
+        <v>1595.11</v>
       </c>
       <c r="AL81">
-        <v>366.88099999999997</v>
+        <v>372.30399999999997</v>
       </c>
       <c r="AM81">
-        <v>3163600</v>
+        <v>1373805</v>
       </c>
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.25">
@@ -15943,13 +15954,13 @@
         <v>8</v>
       </c>
       <c r="AK82">
-        <v>1695.81</v>
+        <v>1661.39</v>
       </c>
       <c r="AL82">
-        <v>378.44299999999998</v>
+        <v>384.24</v>
       </c>
       <c r="AM82">
-        <v>3076188</v>
+        <v>1247757</v>
       </c>
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.25">
@@ -16041,13 +16052,13 @@
         <v>8</v>
       </c>
       <c r="AK83">
-        <v>1692.61</v>
+        <v>1636.67</v>
       </c>
       <c r="AL83">
-        <v>381.79399999999998</v>
+        <v>385.447</v>
       </c>
       <c r="AM83">
-        <v>3093085</v>
+        <v>1267619</v>
       </c>
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.25">
@@ -16139,13 +16150,13 @@
         <v>8</v>
       </c>
       <c r="AK84">
-        <v>1671.88</v>
+        <v>1644.87</v>
       </c>
       <c r="AL84">
-        <v>389.09</v>
+        <v>396.97800000000001</v>
       </c>
       <c r="AM84">
-        <v>3179499</v>
+        <v>1111719</v>
       </c>
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.25">
@@ -16237,13 +16248,13 @@
         <v>8</v>
       </c>
       <c r="AK85">
-        <v>1580.64</v>
+        <v>1532.66</v>
       </c>
       <c r="AL85">
-        <v>365.10300000000001</v>
+        <v>366.64600000000002</v>
       </c>
       <c r="AM85">
-        <v>2858236</v>
+        <v>1163524</v>
       </c>
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.25">
@@ -16335,13 +16346,13 @@
         <v>8</v>
       </c>
       <c r="AK86">
-        <v>1634.96</v>
+        <v>1600.02</v>
       </c>
       <c r="AL86">
-        <v>361.79599999999999</v>
+        <v>365.70299999999997</v>
       </c>
       <c r="AM86">
-        <v>3319743</v>
+        <v>1154128</v>
       </c>
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.25">
@@ -16433,13 +16444,13 @@
         <v>8</v>
       </c>
       <c r="AK87">
-        <v>1766.28</v>
+        <v>1746.25</v>
       </c>
       <c r="AL87">
-        <v>362.21699999999998</v>
+        <v>368.92599999999999</v>
       </c>
       <c r="AM87">
-        <v>3143344</v>
+        <v>1210531</v>
       </c>
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.25">
@@ -16531,13 +16542,13 @@
         <v>8</v>
       </c>
       <c r="AK88">
-        <v>1741.53</v>
+        <v>1717.64</v>
       </c>
       <c r="AL88">
-        <v>385.03699999999998</v>
+        <v>394.75599999999997</v>
       </c>
       <c r="AM88">
-        <v>3199412</v>
+        <v>1238570</v>
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.25">
@@ -16629,13 +16640,13 @@
         <v>8</v>
       </c>
       <c r="AK89">
-        <v>1578.23</v>
+        <v>1540.17</v>
       </c>
       <c r="AL89">
-        <v>390.24299999999999</v>
+        <v>390.78</v>
       </c>
       <c r="AM89">
-        <v>2901489</v>
+        <v>1171598</v>
       </c>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.25">
@@ -16727,13 +16738,13 @@
         <v>8</v>
       </c>
       <c r="AK90">
-        <v>1645.32</v>
+        <v>1609.71</v>
       </c>
       <c r="AL90">
-        <v>368.35399999999998</v>
+        <v>372.95699999999999</v>
       </c>
       <c r="AM90">
-        <v>3255945</v>
+        <v>1110282</v>
       </c>
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.25">
@@ -16825,13 +16836,13 @@
         <v>8</v>
       </c>
       <c r="AK91">
-        <v>1549.8</v>
+        <v>1514.05</v>
       </c>
       <c r="AL91">
-        <v>379.96499999999997</v>
+        <v>385.25099999999998</v>
       </c>
       <c r="AM91">
-        <v>2981066</v>
+        <v>1051885</v>
       </c>
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.25">
@@ -16923,13 +16934,13 @@
         <v>8</v>
       </c>
       <c r="AK92">
-        <v>1665.46</v>
+        <v>1660.74</v>
       </c>
       <c r="AL92">
-        <v>378.07</v>
+        <v>389.31900000000002</v>
       </c>
       <c r="AM92">
-        <v>2889935</v>
+        <v>1222650</v>
       </c>
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.25">
@@ -17021,13 +17032,13 @@
         <v>8</v>
       </c>
       <c r="AK93">
-        <v>1715.45</v>
+        <v>1675.51</v>
       </c>
       <c r="AL93">
-        <v>362.51</v>
+        <v>363.68599999999998</v>
       </c>
       <c r="AM93">
-        <v>2748325</v>
+        <v>1173521</v>
       </c>
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.25">
@@ -17119,13 +17130,13 @@
         <v>8</v>
       </c>
       <c r="AK94">
-        <v>1729.24</v>
+        <v>1675.96</v>
       </c>
       <c r="AL94">
-        <v>361.42200000000003</v>
+        <v>361.76299999999998</v>
       </c>
       <c r="AM94">
-        <v>3372616</v>
+        <v>1233845</v>
       </c>
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.25">
@@ -17217,13 +17228,13 @@
         <v>8</v>
       </c>
       <c r="AK95">
-        <v>1665.01</v>
+        <v>1619.19</v>
       </c>
       <c r="AL95">
-        <v>368.589</v>
+        <v>374.10700000000003</v>
       </c>
       <c r="AM95">
-        <v>3169611</v>
+        <v>1085550</v>
       </c>
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.25">
@@ -17315,13 +17326,13 @@
         <v>8</v>
       </c>
       <c r="AK96">
-        <v>1587.72</v>
+        <v>1562.54</v>
       </c>
       <c r="AL96">
-        <v>377.96100000000001</v>
+        <v>383.041</v>
       </c>
       <c r="AM96">
-        <v>3263487</v>
+        <v>1087701</v>
       </c>
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.25">
@@ -17413,13 +17424,13 @@
         <v>8</v>
       </c>
       <c r="AK97">
-        <v>1648.01</v>
+        <v>1608.96</v>
       </c>
       <c r="AL97">
-        <v>383.20600000000002</v>
+        <v>388.31900000000002</v>
       </c>
       <c r="AM97">
-        <v>3514106</v>
+        <v>1175793</v>
       </c>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.25">
@@ -17511,13 +17522,13 @@
         <v>8</v>
       </c>
       <c r="AK98">
-        <v>1711.79</v>
+        <v>1681.57</v>
       </c>
       <c r="AL98">
-        <v>372.65600000000001</v>
+        <v>379.56299999999999</v>
       </c>
       <c r="AM98">
-        <v>3241799</v>
+        <v>1197112</v>
       </c>
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.25">
@@ -17609,13 +17620,13 @@
         <v>8</v>
       </c>
       <c r="AK99">
-        <v>1663.36</v>
+        <v>1646.04</v>
       </c>
       <c r="AL99">
-        <v>387.37599999999998</v>
+        <v>397.971</v>
       </c>
       <c r="AM99">
-        <v>3609724</v>
+        <v>1189663</v>
       </c>
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.25">
@@ -17707,13 +17718,13 @@
         <v>8</v>
       </c>
       <c r="AK100">
-        <v>1583.46</v>
+        <v>1660.74</v>
       </c>
       <c r="AL100">
-        <v>356.95800000000003</v>
+        <v>389.31900000000002</v>
       </c>
       <c r="AM100">
-        <v>2889128</v>
+        <v>1222650</v>
       </c>
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.25">
@@ -17805,13 +17816,13 @@
         <v>8</v>
       </c>
       <c r="AK101">
-        <v>1629.45</v>
+        <v>1675.51</v>
       </c>
       <c r="AL101">
-        <v>361.61200000000002</v>
+        <v>363.68599999999998</v>
       </c>
       <c r="AM101">
-        <v>3344100</v>
+        <v>1173521</v>
       </c>
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.25">
@@ -17867,13 +17878,142 @@
         <v>8</v>
       </c>
       <c r="AK102">
-        <v>1655.61</v>
+        <v>1675.96</v>
       </c>
       <c r="AL102">
-        <v>370.58699999999999</v>
+        <v>361.76299999999998</v>
       </c>
       <c r="AM102">
-        <v>3166509</v>
+        <v>1233845</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <f>AVERAGE(B2:B102)</f>
+        <v>1673.874</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:AM103" si="0">AVERAGE(C2:C102)</f>
+        <v>379.74245999999977</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="0"/>
+        <v>1167419.98</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="0"/>
+        <v>955.26288000000011</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="0"/>
+        <v>136.45850999999996</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="0"/>
+        <v>3646815.31</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="0"/>
+        <v>956.52816000000018</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="0"/>
+        <v>136.53950999999995</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="0"/>
+        <v>15022597.130000001</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="0"/>
+        <v>956.81352475247513</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="0"/>
+        <v>137.45255445544555</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="0"/>
+        <v>3866177.792079208</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="0"/>
+        <v>956.63077227722783</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="0"/>
+        <v>137.56475247524747</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="0"/>
+        <v>3944192.1782178218</v>
+      </c>
+      <c r="Z103">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AA103">
+        <f t="shared" si="0"/>
+        <v>1364.7662376237622</v>
+      </c>
+      <c r="AB103">
+        <f t="shared" si="0"/>
+        <v>400.96348514851462</v>
+      </c>
+      <c r="AC103">
+        <f t="shared" si="0"/>
+        <v>1160117.9603960395</v>
+      </c>
+      <c r="AE103">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AF103">
+        <f t="shared" si="0"/>
+        <v>1445.5845544554459</v>
+      </c>
+      <c r="AG103">
+        <f t="shared" si="0"/>
+        <v>398.11496039603952</v>
+      </c>
+      <c r="AH103">
+        <f t="shared" si="0"/>
+        <v>1178999.207920792</v>
+      </c>
+      <c r="AJ103">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AK103">
+        <f t="shared" si="0"/>
+        <v>1613.6219801980199</v>
+      </c>
+      <c r="AL103">
+        <f t="shared" si="0"/>
+        <v>376.22572277227738</v>
+      </c>
+      <c r="AM103">
+        <f t="shared" si="0"/>
+        <v>1229387.712871287</v>
       </c>
     </row>
   </sheetData>

--- a/ProcessSimulator/N=500 Graphs.xlsx
+++ b/ProcessSimulator/N=500 Graphs.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\MST\Fall 2020\CS 3800\Project\Simulator\Process-Memory-Mangaement-Simulation\ProcessSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E638629-E344-493F-B1E9-A2BA980E19E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E1F53D-C7BD-48B2-AF0D-E426A1981C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3333,7 +3336,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Times for All 100 Process (n) Lists on All Algorithms Where n=500 </a:t>
+              <a:t> Times for All 100 Process (n) Lists on All Algorithms Where n=500 and Small Execution Time </a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6417,7 +6420,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7656,6 +7659,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7921,8 +7937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L79" workbookViewId="0">
-      <selection activeCell="AM103" sqref="AM103"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17891,9 +17907,9 @@
       <c r="A103" t="s">
         <v>4</v>
       </c>
-      <c r="B103">
-        <f>AVERAGE(B2:B102)</f>
-        <v>1673.874</v>
+      <c r="B103" t="b">
+        <f>[1]Sheet1!$B$104=AVERAGE(B2:B102)</f>
+        <v>0</v>
       </c>
       <c r="C103">
         <f t="shared" ref="C103:AM103" si="0">AVERAGE(C2:C102)</f>

--- a/ProcessSimulator/N=500 Graphs.xlsx
+++ b/ProcessSimulator/N=500 Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\MST\Fall 2020\CS 3800\Project\Simulator\Process-Memory-Mangaement-Simulation\ProcessSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E1F53D-C7BD-48B2-AF0D-E426A1981C31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B18969-AC16-4B36-8D9D-9F3D76B62399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="6000" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3336,7 +3336,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Times for All 100 Process (n) Lists on All Algorithms Where n=500 and Small Execution Time </a:t>
+              <a:t> Times for All 100 Process (n) Lists on All Algorithms Where n=500 and Varying Execution Time</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -6337,7 +6337,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Turn</a:t>
+                  <a:t>AVergae Normalized Turn</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -7937,8 +7937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
+      <selection activeCell="W144" sqref="W144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
